--- a/DnData/D20/MYLUCK_21OneShot_6-6.xlsx
+++ b/DnData/D20/MYLUCK_21OneShot_6-6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A8EE0-8912-488D-BDD7-067A07426FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0189216-637D-4CBE-9170-31FAAB153310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -312,7 +312,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -961,7 +961,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2809,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EF6D9-5AD5-43CA-9518-DC5AA8E532CB}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,11 +2840,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2857,9 +2857,9 @@
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="e">
+      <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2872,9 +2872,9 @@
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="e">
+      <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2887,9 +2887,9 @@
       <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="e">
+      <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2902,9 +2902,9 @@
       <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="e">
+      <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2917,9 +2917,9 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="e">
+      <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2932,9 +2932,9 @@
       <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="e">
+      <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2947,9 +2947,9 @@
       <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="e">
+      <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2962,9 +2962,9 @@
       <c r="B10" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="e">
+      <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2977,9 +2977,9 @@
       <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="3" t="e">
+      <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2992,9 +2992,9 @@
       <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="3" t="e">
+      <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3007,9 +3007,9 @@
       <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="3" t="e">
+      <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3022,9 +3022,9 @@
       <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="e">
+      <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3037,9 +3037,9 @@
       <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="e">
+      <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3052,9 +3052,9 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="e">
+      <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3067,9 +3067,9 @@
       <c r="B17" s="2">
         <v>0</v>
       </c>
-      <c r="C17" s="3" t="e">
+      <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3082,9 +3082,9 @@
       <c r="B18" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="e">
+      <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3097,9 +3097,9 @@
       <c r="B19" s="2">
         <v>0</v>
       </c>
-      <c r="C19" s="3" t="e">
+      <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3115,9 +3115,9 @@
       <c r="B20" s="2">
         <v>0</v>
       </c>
-      <c r="C20" s="3" t="e">
+      <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3130,9 +3130,9 @@
       <c r="B21" s="2">
         <v>0</v>
       </c>
-      <c r="C21" s="3" t="e">
+      <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3171,9 +3171,9 @@
         <f>SUM(B12:B21)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="3" t="e">
+      <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
